--- a/PLLine.xlsx
+++ b/PLLine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -863,216 +863,644 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>126.7830583029337</v>
+        <v>498.3758397717395</v>
       </c>
       <c r="B5" t="n">
-        <v>126.7830583029337</v>
+        <v>498.3758397717395</v>
       </c>
       <c r="C5" t="n">
-        <v>1495.944390222178</v>
+        <v>507.5328597682187</v>
       </c>
       <c r="D5" t="n">
-        <v>1495.944390222178</v>
+        <v>507.5328597682187</v>
       </c>
       <c r="E5" t="n">
-        <v>530.892209652194</v>
+        <v>789.4330008905968</v>
       </c>
       <c r="F5" t="n">
-        <v>14.07379881151627</v>
+        <v>57.73562420279177</v>
       </c>
       <c r="G5" t="n">
-        <v>744.9362935185491</v>
+        <v>854.8701345509926</v>
       </c>
       <c r="H5" t="n">
-        <v>106.7113784331326</v>
+        <v>211.2891968162671</v>
       </c>
       <c r="I5" t="n">
-        <v>70.82908799985432</v>
+        <v>267.3762788679426</v>
       </c>
       <c r="J5" t="n">
-        <v>1254.386051185804</v>
+        <v>1797.078731216573</v>
       </c>
       <c r="K5" t="n">
-        <v>14.07379881151627</v>
+        <v>57.73562420279177</v>
       </c>
       <c r="L5" t="n">
-        <v>144.1752644154093</v>
+        <v>221.7667529441059</v>
       </c>
       <c r="M5" t="n">
-        <v>144.1752644154093</v>
+        <v>221.7667529441059</v>
       </c>
       <c r="N5" t="n">
-        <v>432.4238410648036</v>
+        <v>1006.579275845326</v>
       </c>
       <c r="O5" t="n">
-        <v>7541.283541783059</v>
+        <v>4450.641552857292</v>
       </c>
       <c r="P5" t="n">
-        <v>3839.175361151661</v>
+        <v>7660.027391104904</v>
       </c>
       <c r="Q5" t="n">
-        <v>5862.856049980451</v>
+        <v>3956.777035947084</v>
       </c>
       <c r="R5" t="n">
-        <v>432.4238410648036</v>
+        <v>1006.579275845326</v>
       </c>
       <c r="S5" t="n">
-        <v>1523.11151449311</v>
+        <v>2833.981331535483</v>
       </c>
       <c r="T5" t="n">
-        <v>13856.80993573624</v>
+        <v>3923.394573732281</v>
       </c>
       <c r="U5" t="n">
-        <v>13856.80993573624</v>
+        <v>3923.394573732281</v>
       </c>
       <c r="V5" t="n">
-        <v>1015.921881480665</v>
+        <v>119.3068062589848</v>
       </c>
       <c r="W5" t="n">
-        <v>2621.427108807438</v>
+        <v>2229.950886989855</v>
       </c>
       <c r="X5" t="n">
-        <v>7854.384808502914</v>
+        <v>6314.634164873951</v>
       </c>
       <c r="Y5" t="n">
-        <v>2709.508028807363</v>
+        <v>1284.016544673904</v>
       </c>
       <c r="Z5" t="n">
-        <v>8227.617310745018</v>
+        <v>11292.45903705635</v>
       </c>
       <c r="AA5" t="n">
-        <v>1015.921881480665</v>
+        <v>119.3068062589848</v>
       </c>
       <c r="AB5" t="n">
-        <v>15.29251252918584</v>
+        <v>39.97129439852642</v>
       </c>
       <c r="AC5" t="n">
-        <v>120.4148190143002</v>
+        <v>9.726874395589391</v>
       </c>
       <c r="AD5" t="n">
-        <v>652.8375382654303</v>
+        <v>555.2701837566474</v>
       </c>
       <c r="AE5" t="n">
-        <v>319.3975744761133</v>
+        <v>288.2455992257746</v>
       </c>
       <c r="AF5" t="n">
-        <v>89.74080160287912</v>
+        <v>96.66447410705103</v>
       </c>
       <c r="AG5" t="n">
-        <v>1915.916942166064</v>
+        <v>2423.45238907933</v>
       </c>
       <c r="AH5" t="n">
-        <v>120.4148190143002</v>
+        <v>9.726874395589391</v>
       </c>
       <c r="AI5" t="n">
-        <v>2572.850496030014</v>
+        <v>2023.760041995388</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>126.7830583029337</v>
+      </c>
+      <c r="B6" t="n">
+        <v>126.7830583029337</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1495.944390222178</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1495.944390222178</v>
+      </c>
+      <c r="E6" t="n">
+        <v>530.892209652194</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14.07379881151627</v>
+      </c>
+      <c r="G6" t="n">
+        <v>744.9362935185491</v>
+      </c>
+      <c r="H6" t="n">
+        <v>106.7113784331326</v>
+      </c>
+      <c r="I6" t="n">
+        <v>70.82908799985432</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1254.386051185804</v>
+      </c>
+      <c r="K6" t="n">
+        <v>14.07379881151627</v>
+      </c>
+      <c r="L6" t="n">
+        <v>144.1752644154093</v>
+      </c>
+      <c r="M6" t="n">
+        <v>144.1752644154093</v>
+      </c>
+      <c r="N6" t="n">
+        <v>432.4238410648036</v>
+      </c>
+      <c r="O6" t="n">
+        <v>7541.283541783059</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3839.175361151661</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5862.856049980451</v>
+      </c>
+      <c r="R6" t="n">
+        <v>432.4238410648036</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1523.11151449311</v>
+      </c>
+      <c r="T6" t="n">
+        <v>13856.80993573624</v>
+      </c>
+      <c r="U6" t="n">
+        <v>13856.80993573624</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1015.921881480665</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2621.427108807438</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7854.384808502914</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2709.508028807363</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>8227.617310745018</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1015.921881480665</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>15.29251252918584</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>120.4148190143002</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>652.8375382654303</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>319.3975744761133</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>89.74080160287912</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1915.916942166064</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>120.4148190143002</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>2572.850496030014</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>127.3642066992977</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" t="n">
         <v>127.3642066992977</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1555.227798032092</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1555.227798032092</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E7" t="n">
         <v>523.3984677096544</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F7" t="n">
         <v>13.17783415202811</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G7" t="n">
         <v>745.057322704497</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H7" t="n">
         <v>106.9441740204553</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I7" t="n">
         <v>67.90402039938215</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J7" t="n">
         <v>1242.978497173169</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K7" t="n">
         <v>13.17783415202811</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L7" t="n">
         <v>158.8113350645273</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M7" t="n">
         <v>158.8113350645273</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N7" t="n">
         <v>430.5697583993151</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O7" t="n">
         <v>7557.404885914366</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>3802.963144442288</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q7" t="n">
         <v>5904.58980339929</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R7" t="n">
         <v>430.5697583993151</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S7" t="n">
         <v>1518.422853984589</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T7" t="n">
         <v>14575.42791240729</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U7" t="n">
         <v>14575.42791240729</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V7" t="n">
         <v>305.1738351130444</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W7" t="n">
         <v>2157.065820111939</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X7" t="n">
         <v>6107.508001946826</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y7" t="n">
         <v>1124.644270355304</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z7" t="n">
         <v>11555.50247945484</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA7" t="n">
         <v>305.1738351130444</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB7" t="n">
         <v>46.01417686455989</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC7" t="n">
         <v>134.3916886936682</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD7" t="n">
         <v>653.0014251469538</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE7" t="n">
         <v>325.1149898628825</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF7" t="n">
         <v>92.30201045098951</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG7" t="n">
         <v>1896.834464342987</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH7" t="n">
         <v>134.3916886936682</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI7" t="n">
         <v>2628.955831124244</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>202.1106522734044</v>
+      </c>
+      <c r="B8" t="n">
+        <v>202.1106522734044</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1262.072113431202</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1262.072113431202</v>
+      </c>
+      <c r="E8" t="n">
+        <v>584.0627626981245</v>
+      </c>
+      <c r="F8" t="n">
+        <v>21.17762396996525</v>
+      </c>
+      <c r="G8" t="n">
+        <v>774.4887395466549</v>
+      </c>
+      <c r="H8" t="n">
+        <v>130.875220828699</v>
+      </c>
+      <c r="I8" t="n">
+        <v>104.8019736500976</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1373.219655715673</v>
+      </c>
+      <c r="K8" t="n">
+        <v>21.17762396996525</v>
+      </c>
+      <c r="L8" t="n">
+        <v>313.8973946961556</v>
+      </c>
+      <c r="M8" t="n">
+        <v>313.8973946961556</v>
+      </c>
+      <c r="N8" t="n">
+        <v>426.9176752184478</v>
+      </c>
+      <c r="O8" t="n">
+        <v>7585.344040047403</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3735.465896976848</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5981.322700731653</v>
+      </c>
+      <c r="R8" t="n">
+        <v>426.9176752184478</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1509.548464190971</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3927.636285366048</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3927.636285366048</v>
+      </c>
+      <c r="V8" t="n">
+        <v>121.0411310640378</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2229.25894867808</v>
+      </c>
+      <c r="X8" t="n">
+        <v>6312.810709377004</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1282.385547594572</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>11294.09579449907</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>121.0411310640378</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>40.021045164508</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>73.66806453668318</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>514.3480966576135</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>349.1363839851545</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>125.8223070159801</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>2650.868116792253</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>73.66806453668318</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1840.545316574151</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>185.5554191210729</v>
+      </c>
+      <c r="B9" t="n">
+        <v>185.5554191210729</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1275.606156965978</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1275.606156965978</v>
+      </c>
+      <c r="E9" t="n">
+        <v>576.0463286808317</v>
+      </c>
+      <c r="F9" t="n">
+        <v>19.88465817276008</v>
+      </c>
+      <c r="G9" t="n">
+        <v>767.1802005822883</v>
+      </c>
+      <c r="H9" t="n">
+        <v>123.5437818123728</v>
+      </c>
+      <c r="I9" t="n">
+        <v>98.87170438258863</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1352.209295480804</v>
+      </c>
+      <c r="K9" t="n">
+        <v>19.88465817276008</v>
+      </c>
+      <c r="L9" t="n">
+        <v>234.2648680171493</v>
+      </c>
+      <c r="M9" t="n">
+        <v>234.2648680171493</v>
+      </c>
+      <c r="N9" t="n">
+        <v>432.2376500860514</v>
+      </c>
+      <c r="O9" t="n">
+        <v>7560.663170983844</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3820.105082677969</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5894.687341924623</v>
+      </c>
+      <c r="R9" t="n">
+        <v>432.2376500860514</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1520.923985081481</v>
+      </c>
+      <c r="T9" t="n">
+        <v>4058.151068905062</v>
+      </c>
+      <c r="U9" t="n">
+        <v>4058.151068905062</v>
+      </c>
+      <c r="V9" t="n">
+        <v>128.9575958459696</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2230.555401492211</v>
+      </c>
+      <c r="X9" t="n">
+        <v>6320.454939934393</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1286.655355411625</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>11273.72346557388</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>128.9575958459696</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>39.90771796310355</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>29.03406758114002</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1152.244591027511</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>415.7390898282642</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>171.9635417075267</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>3264.038876588302</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>29.03406758114002</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1447.694696328028</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>143.1922588786279</v>
+      </c>
+      <c r="B10" t="n">
+        <v>143.1922588786279</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1524.339798564029</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1524.339798564029</v>
+      </c>
+      <c r="E10" t="n">
+        <v>533.2875374061814</v>
+      </c>
+      <c r="F10" t="n">
+        <v>14.69684751397082</v>
+      </c>
+      <c r="G10" t="n">
+        <v>752.4400101061701</v>
+      </c>
+      <c r="H10" t="n">
+        <v>112.2801241330649</v>
+      </c>
+      <c r="I10" t="n">
+        <v>73.22922015497113</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1266.309417246134</v>
+      </c>
+      <c r="K10" t="n">
+        <v>14.69684751397082</v>
+      </c>
+      <c r="L10" t="n">
+        <v>214.1099978638294</v>
+      </c>
+      <c r="M10" t="n">
+        <v>214.1099978638294</v>
+      </c>
+      <c r="N10" t="n">
+        <v>427.0909167527179</v>
+      </c>
+      <c r="O10" t="n">
+        <v>7580.01596445456</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3742.247327041241</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5971.633980104002</v>
+      </c>
+      <c r="R10" t="n">
+        <v>427.0909167527179</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1510.36561380073</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3946.749495926838</v>
+      </c>
+      <c r="U10" t="n">
+        <v>3946.749495926838</v>
+      </c>
+      <c r="V10" t="n">
+        <v>122.8515370177838</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2229.129552835502</v>
+      </c>
+      <c r="X10" t="n">
+        <v>6313.036523259825</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1282.240434642802</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>11292.0689399906</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>122.8515370177838</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>40.02741415871469</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>51.30921599705829</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>795.7942602259891</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>327.4795629594394</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>201.5314747101229</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1294.560006148174</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>51.30921599705829</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>449.4945897479283</v>
       </c>
     </row>
   </sheetData>

--- a/PLLine.xlsx
+++ b/PLLine.xlsx
@@ -542,965 +542,965 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34.89197730825566</v>
+        <v>20.35936275243344</v>
       </c>
       <c r="B2" t="n">
-        <v>34.89197730825566</v>
+        <v>20.35936275243344</v>
       </c>
       <c r="C2" t="n">
-        <v>178.8094415697543</v>
+        <v>227.7407861701093</v>
       </c>
       <c r="D2" t="n">
-        <v>178.8094415697543</v>
+        <v>227.7407861701093</v>
       </c>
       <c r="E2" t="n">
-        <v>1333.27227330534</v>
+        <v>1236.114455476127</v>
       </c>
       <c r="F2" t="n">
-        <v>203.8693120213253</v>
+        <v>174.4497137431438</v>
       </c>
       <c r="G2" t="n">
-        <v>352.4073466701338</v>
+        <v>392.0604158569176</v>
       </c>
       <c r="H2" t="n">
-        <v>150.9337102995403</v>
+        <v>111.0876731158896</v>
       </c>
       <c r="I2" t="n">
-        <v>216.382878444648</v>
+        <v>203.7023247048637</v>
       </c>
       <c r="J2" t="n">
-        <v>1678.40673632702</v>
+        <v>1647.326341741007</v>
       </c>
       <c r="K2" t="n">
-        <v>203.8693120213253</v>
+        <v>174.4497137431438</v>
       </c>
       <c r="L2" t="n">
-        <v>54.93777509617814</v>
+        <v>43.0142795235966</v>
       </c>
       <c r="M2" t="n">
-        <v>54.93777509617814</v>
+        <v>43.0142795235966</v>
       </c>
       <c r="N2" t="n">
-        <v>427.8192072831359</v>
+        <v>432.395773160863</v>
       </c>
       <c r="O2" t="n">
-        <v>7580.52457293752</v>
+        <v>7542.863163121183</v>
       </c>
       <c r="P2" t="n">
-        <v>3750.242279648319</v>
+        <v>3837.410575928402</v>
       </c>
       <c r="Q2" t="n">
-        <v>5965.513305433205</v>
+        <v>5865.536426681615</v>
       </c>
       <c r="R2" t="n">
-        <v>427.8192072831359</v>
+        <v>432.395773160863</v>
       </c>
       <c r="S2" t="n">
-        <v>1511.537359719</v>
+        <v>1522.913725556805</v>
       </c>
       <c r="T2" t="n">
-        <v>3955.676693856674</v>
+        <v>4135.867684861438</v>
       </c>
       <c r="U2" t="n">
-        <v>3955.676693856674</v>
+        <v>4135.867684861438</v>
       </c>
       <c r="V2" t="n">
-        <v>120.1043999000451</v>
+        <v>124.0304261544694</v>
       </c>
       <c r="W2" t="n">
-        <v>2230.866199254024</v>
+        <v>2236.229261227663</v>
       </c>
       <c r="X2" t="n">
-        <v>6318.234439962225</v>
+        <v>6338.979941471962</v>
       </c>
       <c r="Y2" t="n">
-        <v>1286.500979743124</v>
+        <v>1301.024756425619</v>
       </c>
       <c r="Z2" t="n">
-        <v>11285.39130977322</v>
+        <v>11245.52562943529</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.1043999000451</v>
+        <v>124.0304261544694</v>
       </c>
       <c r="AB2" t="n">
-        <v>39.89896700153395</v>
+        <v>39.47988195886865</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.697687179917921</v>
+        <v>5.649241407580163</v>
       </c>
       <c r="AD2" t="n">
-        <v>584.8286163852663</v>
+        <v>592.5869062632501</v>
       </c>
       <c r="AE2" t="n">
-        <v>279.4183530313603</v>
+        <v>278.3559393655537</v>
       </c>
       <c r="AF2" t="n">
-        <v>82.04006493810567</v>
+        <v>81.79780845941664</v>
       </c>
       <c r="AG2" t="n">
-        <v>2263.485421924315</v>
+        <v>2257.312623138091</v>
       </c>
       <c r="AH2" t="n">
-        <v>5.697687179917921</v>
+        <v>5.649241407580163</v>
       </c>
       <c r="AI2" t="n">
-        <v>2167.362320796087</v>
+        <v>2129.262458034816</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.304983221520843</v>
+        <v>34.89224104258426</v>
       </c>
       <c r="B3" t="n">
-        <v>5.304983221520843</v>
+        <v>34.89224104258426</v>
       </c>
       <c r="C3" t="n">
-        <v>331.6367371973001</v>
+        <v>178.8093453259876</v>
       </c>
       <c r="D3" t="n">
-        <v>331.6367371973001</v>
+        <v>178.8093453259876</v>
       </c>
       <c r="E3" t="n">
-        <v>856.0401283776287</v>
+        <v>1333.272326732413</v>
       </c>
       <c r="F3" t="n">
-        <v>73.21519830884426</v>
+        <v>203.8693702534289</v>
       </c>
       <c r="G3" t="n">
-        <v>876.9430751106029</v>
+        <v>352.4072361861954</v>
       </c>
       <c r="H3" t="n">
-        <v>203.3686771568739</v>
+        <v>150.9337069329888</v>
       </c>
       <c r="I3" t="n">
-        <v>318.1899705519697</v>
+        <v>216.3830430878591</v>
       </c>
       <c r="J3" t="n">
-        <v>1923.574013270581</v>
+        <v>1678.406696940101</v>
       </c>
       <c r="K3" t="n">
-        <v>73.21519830884426</v>
+        <v>203.8693702534289</v>
       </c>
       <c r="L3" t="n">
-        <v>45.39226440391175</v>
+        <v>54.93765972850184</v>
       </c>
       <c r="M3" t="n">
-        <v>45.39226440391175</v>
+        <v>54.93765972850184</v>
       </c>
       <c r="N3" t="n">
-        <v>439.4080512156506</v>
+        <v>427.8208885708921</v>
       </c>
       <c r="O3" t="n">
-        <v>7504.383892801116</v>
+        <v>7580.524751431085</v>
       </c>
       <c r="P3" t="n">
-        <v>3955.419819687677</v>
+        <v>3750.245994100169</v>
       </c>
       <c r="Q3" t="n">
-        <v>5743.602318632043</v>
+        <v>5965.521435780147</v>
       </c>
       <c r="R3" t="n">
-        <v>439.4080512156506</v>
+        <v>427.8208885708921</v>
       </c>
       <c r="S3" t="n">
-        <v>1538.488817394466</v>
+        <v>1511.540246075981</v>
       </c>
       <c r="T3" t="n">
-        <v>4344.073542747366</v>
+        <v>3955.675225550351</v>
       </c>
       <c r="U3" t="n">
-        <v>4344.073542747366</v>
+        <v>3955.675225550351</v>
       </c>
       <c r="V3" t="n">
-        <v>129.1280285351579</v>
+        <v>120.1042424212986</v>
       </c>
       <c r="W3" t="n">
-        <v>2242.135105844682</v>
+        <v>2230.865563736188</v>
       </c>
       <c r="X3" t="n">
-        <v>6361.992557730218</v>
+        <v>6318.23261008833</v>
       </c>
       <c r="Y3" t="n">
-        <v>1317.187892784602</v>
+        <v>1286.500686995822</v>
       </c>
       <c r="Z3" t="n">
-        <v>11201.16998813296</v>
+        <v>11285.38792344932</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.1280285351579</v>
+        <v>120.1042424212986</v>
       </c>
       <c r="AB3" t="n">
-        <v>39.02342447099727</v>
+        <v>39.89895510761698</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.158591779150456</v>
+        <v>5.697625616965851</v>
       </c>
       <c r="AD3" t="n">
-        <v>597.2185454436385</v>
+        <v>584.8286295259868</v>
       </c>
       <c r="AE3" t="n">
-        <v>283.6420859898539</v>
+        <v>279.4184264277817</v>
       </c>
       <c r="AF3" t="n">
-        <v>82.77750630414005</v>
+        <v>82.04047152667471</v>
       </c>
       <c r="AG3" t="n">
-        <v>2270.113892720246</v>
+        <v>2263.48584432958</v>
       </c>
       <c r="AH3" t="n">
-        <v>4.158591779150456</v>
+        <v>5.697625616965851</v>
       </c>
       <c r="AI3" t="n">
-        <v>2070.251686500626</v>
+        <v>2167.362410894043</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20.35936805968674</v>
+        <v>5.204835585047363</v>
       </c>
       <c r="B4" t="n">
-        <v>20.35936805968674</v>
+        <v>5.204835585047363</v>
       </c>
       <c r="C4" t="n">
-        <v>227.7407850519495</v>
+        <v>332.5441317674489</v>
       </c>
       <c r="D4" t="n">
-        <v>227.7407850519495</v>
+        <v>332.5441317674489</v>
       </c>
       <c r="E4" t="n">
-        <v>1236.114433740795</v>
+        <v>855.4530603850594</v>
       </c>
       <c r="F4" t="n">
-        <v>174.4497122386974</v>
+        <v>73.08183301530136</v>
       </c>
       <c r="G4" t="n">
-        <v>392.0604117929543</v>
+        <v>876.5987488127394</v>
       </c>
       <c r="H4" t="n">
-        <v>111.0876824497211</v>
+        <v>202.9868020137258</v>
       </c>
       <c r="I4" t="n">
-        <v>203.7023215827674</v>
+        <v>317.5534098660648</v>
       </c>
       <c r="J4" t="n">
-        <v>1647.326330384999</v>
+        <v>1922.198387685683</v>
       </c>
       <c r="K4" t="n">
-        <v>174.4497122386974</v>
+        <v>73.08183301530136</v>
       </c>
       <c r="L4" t="n">
-        <v>43.01427748838549</v>
+        <v>45.1890685218288</v>
       </c>
       <c r="M4" t="n">
-        <v>43.01427748838549</v>
+        <v>45.1890685218288</v>
       </c>
       <c r="N4" t="n">
-        <v>432.3957709930824</v>
+        <v>439.483790522246</v>
       </c>
       <c r="O4" t="n">
-        <v>7542.863155393206</v>
+        <v>7503.769900960378</v>
       </c>
       <c r="P4" t="n">
-        <v>3837.410556266263</v>
+        <v>3956.875015645437</v>
       </c>
       <c r="Q4" t="n">
-        <v>5865.53643711045</v>
+        <v>5741.987706477858</v>
       </c>
       <c r="R4" t="n">
-        <v>432.3957709930824</v>
+        <v>439.483790522246</v>
       </c>
       <c r="S4" t="n">
-        <v>1522.913722704175</v>
+        <v>1538.676385062672</v>
       </c>
       <c r="T4" t="n">
-        <v>4135.867687145548</v>
+        <v>4347.131880544652</v>
       </c>
       <c r="U4" t="n">
-        <v>4135.867687145548</v>
+        <v>4347.131880544652</v>
       </c>
       <c r="V4" t="n">
-        <v>124.030429441472</v>
+        <v>129.2012850955704</v>
       </c>
       <c r="W4" t="n">
-        <v>2236.229259075799</v>
+        <v>2242.222593575889</v>
       </c>
       <c r="X4" t="n">
-        <v>6338.979933734549</v>
+        <v>6362.33166671957</v>
       </c>
       <c r="Y4" t="n">
-        <v>1301.024752910848</v>
+        <v>1317.427715487582</v>
       </c>
       <c r="Z4" t="n">
-        <v>11245.52562734721</v>
+        <v>11200.5220175289</v>
       </c>
       <c r="AA4" t="n">
-        <v>124.030429441472</v>
+        <v>129.2012850955704</v>
       </c>
       <c r="AB4" t="n">
-        <v>39.47988204885178</v>
+        <v>39.01671494270431</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.64924181151838</v>
+        <v>4.160593277450886</v>
       </c>
       <c r="AD4" t="n">
-        <v>592.5869067782514</v>
+        <v>597.3566459324502</v>
       </c>
       <c r="AE4" t="n">
-        <v>278.355935838178</v>
+        <v>283.6302779621462</v>
       </c>
       <c r="AF4" t="n">
-        <v>81.797806502653</v>
+        <v>82.76955540845421</v>
       </c>
       <c r="AG4" t="n">
-        <v>2257.312622772247</v>
+        <v>2269.956404615073</v>
       </c>
       <c r="AH4" t="n">
-        <v>5.64924181151838</v>
+        <v>4.160593277450886</v>
       </c>
       <c r="AI4" t="n">
-        <v>2129.26245696525</v>
+        <v>2069.697684567529</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>498.3758397717395</v>
+        <v>126.7831265670338</v>
       </c>
       <c r="B5" t="n">
-        <v>498.3758397717395</v>
+        <v>126.7831265670338</v>
       </c>
       <c r="C5" t="n">
-        <v>507.5328597682187</v>
+        <v>1495.945829313456</v>
       </c>
       <c r="D5" t="n">
-        <v>507.5328597682187</v>
+        <v>1495.945829313456</v>
       </c>
       <c r="E5" t="n">
-        <v>789.4330008905968</v>
+        <v>530.8919694051042</v>
       </c>
       <c r="F5" t="n">
-        <v>57.73562420279177</v>
+        <v>14.07377180438019</v>
       </c>
       <c r="G5" t="n">
-        <v>854.8701345509926</v>
+        <v>744.9364523847635</v>
       </c>
       <c r="H5" t="n">
-        <v>211.2891968162671</v>
+        <v>106.7115275827177</v>
       </c>
       <c r="I5" t="n">
-        <v>267.3762788679426</v>
+        <v>70.82903468462121</v>
       </c>
       <c r="J5" t="n">
-        <v>1797.078731216573</v>
+        <v>1254.38585057924</v>
       </c>
       <c r="K5" t="n">
-        <v>57.73562420279177</v>
+        <v>14.07377180438019</v>
       </c>
       <c r="L5" t="n">
-        <v>221.7667529441059</v>
+        <v>144.1756725814969</v>
       </c>
       <c r="M5" t="n">
-        <v>221.7667529441059</v>
+        <v>144.1756725814969</v>
       </c>
       <c r="N5" t="n">
-        <v>1006.579275845326</v>
+        <v>432.4236660265797</v>
       </c>
       <c r="O5" t="n">
-        <v>4450.641552857292</v>
+        <v>7541.284520785666</v>
       </c>
       <c r="P5" t="n">
-        <v>7660.027391104904</v>
+        <v>3839.174217747768</v>
       </c>
       <c r="Q5" t="n">
-        <v>3956.777035947084</v>
+        <v>5862.856569274868</v>
       </c>
       <c r="R5" t="n">
-        <v>1006.579275845326</v>
+        <v>432.4236660265797</v>
       </c>
       <c r="S5" t="n">
-        <v>2833.981331535483</v>
+        <v>1523.111101132258</v>
       </c>
       <c r="T5" t="n">
-        <v>3923.394573732281</v>
+        <v>13856.82067089715</v>
       </c>
       <c r="U5" t="n">
-        <v>3923.394573732281</v>
+        <v>13856.82067089715</v>
       </c>
       <c r="V5" t="n">
-        <v>119.3068062589848</v>
+        <v>1015.923890724395</v>
       </c>
       <c r="W5" t="n">
-        <v>2229.950886989855</v>
+        <v>2621.426505658292</v>
       </c>
       <c r="X5" t="n">
-        <v>6314.634164873951</v>
+        <v>7854.383421242801</v>
       </c>
       <c r="Y5" t="n">
-        <v>1284.016544673904</v>
+        <v>2709.508195771207</v>
       </c>
       <c r="Z5" t="n">
-        <v>11292.45903705635</v>
+        <v>8227.612630513022</v>
       </c>
       <c r="AA5" t="n">
-        <v>119.3068062589848</v>
+        <v>1015.923890724395</v>
       </c>
       <c r="AB5" t="n">
-        <v>39.97129439852642</v>
+        <v>15.29251653840902</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.726874395589391</v>
+        <v>120.4150924938006</v>
       </c>
       <c r="AD5" t="n">
-        <v>555.2701837566474</v>
+        <v>652.8376973099057</v>
       </c>
       <c r="AE5" t="n">
-        <v>288.2455992257746</v>
+        <v>319.3978080177402</v>
       </c>
       <c r="AF5" t="n">
-        <v>96.66447410705103</v>
+        <v>89.74086062805853</v>
       </c>
       <c r="AG5" t="n">
-        <v>2423.45238907933</v>
+        <v>1915.916389944243</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.726874395589391</v>
+        <v>120.4150924938006</v>
       </c>
       <c r="AI5" t="n">
-        <v>2023.760041995388</v>
+        <v>2572.850468583624</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>126.7830583029337</v>
+        <v>127.3652408366388</v>
       </c>
       <c r="B6" t="n">
-        <v>126.7830583029337</v>
+        <v>127.3652408366388</v>
       </c>
       <c r="C6" t="n">
-        <v>1495.944390222178</v>
+        <v>1555.226614793582</v>
       </c>
       <c r="D6" t="n">
-        <v>1495.944390222178</v>
+        <v>1555.226614793582</v>
       </c>
       <c r="E6" t="n">
-        <v>530.892209652194</v>
+        <v>523.3993379955848</v>
       </c>
       <c r="F6" t="n">
-        <v>14.07379881151627</v>
+        <v>13.17791280605007</v>
       </c>
       <c r="G6" t="n">
-        <v>744.9362935185491</v>
+        <v>745.0578558713232</v>
       </c>
       <c r="H6" t="n">
-        <v>106.7113784331326</v>
+        <v>106.944449423068</v>
       </c>
       <c r="I6" t="n">
-        <v>70.82908799985432</v>
+        <v>67.90440960305943</v>
       </c>
       <c r="J6" t="n">
-        <v>1254.386051185804</v>
+        <v>1242.980311577412</v>
       </c>
       <c r="K6" t="n">
-        <v>14.07379881151627</v>
+        <v>13.17791280605007</v>
       </c>
       <c r="L6" t="n">
-        <v>144.1752644154093</v>
+        <v>158.8098893090972</v>
       </c>
       <c r="M6" t="n">
-        <v>144.1752644154093</v>
+        <v>158.8098893090972</v>
       </c>
       <c r="N6" t="n">
-        <v>432.4238410648036</v>
+        <v>430.5719765543756</v>
       </c>
       <c r="O6" t="n">
-        <v>7541.283541783059</v>
+        <v>7557.400620138878</v>
       </c>
       <c r="P6" t="n">
-        <v>3839.175361151661</v>
+        <v>3802.975280970372</v>
       </c>
       <c r="Q6" t="n">
-        <v>5862.856049980451</v>
+        <v>5904.588773422915</v>
       </c>
       <c r="R6" t="n">
-        <v>432.4238410648036</v>
+        <v>430.5719765543756</v>
       </c>
       <c r="S6" t="n">
-        <v>1523.11151449311</v>
+        <v>1518.427186777103</v>
       </c>
       <c r="T6" t="n">
-        <v>13856.80993573624</v>
+        <v>14575.42029065917</v>
       </c>
       <c r="U6" t="n">
-        <v>13856.80993573624</v>
+        <v>14575.42029065917</v>
       </c>
       <c r="V6" t="n">
-        <v>1015.921881480665</v>
+        <v>305.1740338105731</v>
       </c>
       <c r="W6" t="n">
-        <v>2621.427108807438</v>
+        <v>2157.066656548977</v>
       </c>
       <c r="X6" t="n">
-        <v>7854.384808502914</v>
+        <v>6107.509912530986</v>
       </c>
       <c r="Y6" t="n">
-        <v>2709.508028807363</v>
+        <v>1124.643660875847</v>
       </c>
       <c r="Z6" t="n">
-        <v>8227.617310745018</v>
+        <v>11555.51288873266</v>
       </c>
       <c r="AA6" t="n">
-        <v>1015.921881480665</v>
+        <v>305.1740338105731</v>
       </c>
       <c r="AB6" t="n">
-        <v>15.29251252918584</v>
+        <v>46.01423918956016</v>
       </c>
       <c r="AC6" t="n">
-        <v>120.4148190143002</v>
+        <v>134.391199403737</v>
       </c>
       <c r="AD6" t="n">
-        <v>652.8375382654303</v>
+        <v>653.0010211783974</v>
       </c>
       <c r="AE6" t="n">
-        <v>319.3975744761133</v>
+        <v>325.1152129371491</v>
       </c>
       <c r="AF6" t="n">
-        <v>89.74080160287912</v>
+        <v>92.3017946958069</v>
       </c>
       <c r="AG6" t="n">
-        <v>1915.916942166064</v>
+        <v>1896.835985131361</v>
       </c>
       <c r="AH6" t="n">
-        <v>120.4148190143002</v>
+        <v>134.391199403737</v>
       </c>
       <c r="AI6" t="n">
-        <v>2572.850496030014</v>
+        <v>2628.958087086971</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>127.3642066992977</v>
+        <v>498.3758402293859</v>
       </c>
       <c r="B7" t="n">
-        <v>127.3642066992977</v>
+        <v>498.3758402293859</v>
       </c>
       <c r="C7" t="n">
-        <v>1555.227798032092</v>
+        <v>507.5326451931801</v>
       </c>
       <c r="D7" t="n">
-        <v>1555.227798032092</v>
+        <v>507.5326451931801</v>
       </c>
       <c r="E7" t="n">
-        <v>523.3984677096544</v>
+        <v>789.4331817295779</v>
       </c>
       <c r="F7" t="n">
-        <v>13.17783415202811</v>
+        <v>57.73565808231496</v>
       </c>
       <c r="G7" t="n">
-        <v>745.057322704497</v>
+        <v>854.8701391218856</v>
       </c>
       <c r="H7" t="n">
-        <v>106.9441740204553</v>
+        <v>211.2891945179172</v>
       </c>
       <c r="I7" t="n">
-        <v>67.90402039938215</v>
+        <v>267.3764144125528</v>
       </c>
       <c r="J7" t="n">
-        <v>1242.978497173169</v>
+        <v>1797.078999846633</v>
       </c>
       <c r="K7" t="n">
-        <v>13.17783415202811</v>
+        <v>57.73565808231496</v>
       </c>
       <c r="L7" t="n">
-        <v>158.8113350645273</v>
+        <v>221.7669045414397</v>
       </c>
       <c r="M7" t="n">
-        <v>158.8113350645273</v>
+        <v>221.7669045414397</v>
       </c>
       <c r="N7" t="n">
-        <v>430.5697583993151</v>
+        <v>1006.579474197537</v>
       </c>
       <c r="O7" t="n">
-        <v>7557.404885914366</v>
+        <v>4450.641539392336</v>
       </c>
       <c r="P7" t="n">
-        <v>3802.963144442288</v>
+        <v>7660.028475071613</v>
       </c>
       <c r="Q7" t="n">
-        <v>5904.58980339929</v>
+        <v>3956.777104111325</v>
       </c>
       <c r="R7" t="n">
-        <v>430.5697583993151</v>
+        <v>1006.579474197537</v>
       </c>
       <c r="S7" t="n">
-        <v>1518.422853984589</v>
+        <v>2833.981696971591</v>
       </c>
       <c r="T7" t="n">
-        <v>14575.42791240729</v>
+        <v>3923.392368069898</v>
       </c>
       <c r="U7" t="n">
-        <v>14575.42791240729</v>
+        <v>3923.392368069898</v>
       </c>
       <c r="V7" t="n">
-        <v>305.1738351130444</v>
+        <v>119.3065824944206</v>
       </c>
       <c r="W7" t="n">
-        <v>2157.065820111939</v>
+        <v>2229.950793518356</v>
       </c>
       <c r="X7" t="n">
-        <v>6107.508001946826</v>
+        <v>6314.633781296834</v>
       </c>
       <c r="Y7" t="n">
-        <v>1124.644270355304</v>
+        <v>1284.016372768122</v>
       </c>
       <c r="Z7" t="n">
-        <v>11555.50247945484</v>
+        <v>11292.45943185686</v>
       </c>
       <c r="AA7" t="n">
-        <v>305.1738351130444</v>
+        <v>119.3065824944206</v>
       </c>
       <c r="AB7" t="n">
-        <v>46.01417686455989</v>
+        <v>39.97129755026663</v>
       </c>
       <c r="AC7" t="n">
-        <v>134.3916886936682</v>
+        <v>9.726895282092585</v>
       </c>
       <c r="AD7" t="n">
-        <v>653.0014251469538</v>
+        <v>555.2701740538168</v>
       </c>
       <c r="AE7" t="n">
-        <v>325.1149898628825</v>
+        <v>288.2455744837955</v>
       </c>
       <c r="AF7" t="n">
-        <v>92.30201045098951</v>
+        <v>96.66458983095794</v>
       </c>
       <c r="AG7" t="n">
-        <v>1896.834464342987</v>
+        <v>2423.452745127179</v>
       </c>
       <c r="AH7" t="n">
-        <v>134.3916886936682</v>
+        <v>9.726895282092585</v>
       </c>
       <c r="AI7" t="n">
-        <v>2628.955831124244</v>
+        <v>2023.760003535813</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>202.1106522734044</v>
+        <v>143.1889322568907</v>
       </c>
       <c r="B8" t="n">
-        <v>202.1106522734044</v>
+        <v>143.1889322568907</v>
       </c>
       <c r="C8" t="n">
-        <v>1262.072113431202</v>
+        <v>1524.354075318826</v>
       </c>
       <c r="D8" t="n">
-        <v>1262.072113431202</v>
+        <v>1524.354075318826</v>
       </c>
       <c r="E8" t="n">
-        <v>584.0627626981245</v>
+        <v>533.2856532725998</v>
       </c>
       <c r="F8" t="n">
-        <v>21.17762396996525</v>
+        <v>14.69658198367085</v>
       </c>
       <c r="G8" t="n">
-        <v>774.4887395466549</v>
+        <v>752.4395701087769</v>
       </c>
       <c r="H8" t="n">
-        <v>130.875220828699</v>
+        <v>112.2803763364288</v>
       </c>
       <c r="I8" t="n">
-        <v>104.8019736500976</v>
+        <v>73.22873055932178</v>
       </c>
       <c r="J8" t="n">
-        <v>1373.219655715673</v>
+        <v>1266.306434649948</v>
       </c>
       <c r="K8" t="n">
-        <v>21.17762396996525</v>
+        <v>14.69658198367085</v>
       </c>
       <c r="L8" t="n">
-        <v>313.8973946961556</v>
+        <v>214.1165579549948</v>
       </c>
       <c r="M8" t="n">
-        <v>313.8973946961556</v>
+        <v>214.1165579549948</v>
       </c>
       <c r="N8" t="n">
-        <v>426.9176752184478</v>
+        <v>427.0877065395666</v>
       </c>
       <c r="O8" t="n">
-        <v>7585.344040047403</v>
+        <v>7579.983368100784</v>
       </c>
       <c r="P8" t="n">
-        <v>3735.465896976848</v>
+        <v>3742.19947983363</v>
       </c>
       <c r="Q8" t="n">
-        <v>5981.322700731653</v>
+        <v>5971.628960760313</v>
       </c>
       <c r="R8" t="n">
-        <v>426.9176752184478</v>
+        <v>427.0877065395666</v>
       </c>
       <c r="S8" t="n">
-        <v>1509.548464190971</v>
+        <v>1510.354313282335</v>
       </c>
       <c r="T8" t="n">
-        <v>3927.636285366048</v>
+        <v>3946.766125663999</v>
       </c>
       <c r="U8" t="n">
-        <v>3927.636285366048</v>
+        <v>3946.766125663999</v>
       </c>
       <c r="V8" t="n">
-        <v>121.0411310640378</v>
+        <v>122.8516047251755</v>
       </c>
       <c r="W8" t="n">
-        <v>2229.25894867808</v>
+        <v>2229.130426688926</v>
       </c>
       <c r="X8" t="n">
-        <v>6312.810709377004</v>
+        <v>6313.039453517717</v>
       </c>
       <c r="Y8" t="n">
-        <v>1282.385547594572</v>
+        <v>1282.24203576849</v>
       </c>
       <c r="Z8" t="n">
-        <v>11294.09579449907</v>
+        <v>11292.067753183</v>
       </c>
       <c r="AA8" t="n">
-        <v>121.0411310640378</v>
+        <v>122.8516047251755</v>
       </c>
       <c r="AB8" t="n">
-        <v>40.021045164508</v>
+        <v>40.02738201887723</v>
       </c>
       <c r="AC8" t="n">
-        <v>73.66806453668318</v>
+        <v>51.30996895185547</v>
       </c>
       <c r="AD8" t="n">
-        <v>514.3480966576135</v>
+        <v>795.7953504297848</v>
       </c>
       <c r="AE8" t="n">
-        <v>349.1363839851545</v>
+        <v>327.4791928855905</v>
       </c>
       <c r="AF8" t="n">
-        <v>125.8223070159801</v>
+        <v>201.5340300650905</v>
       </c>
       <c r="AG8" t="n">
-        <v>2650.868116792253</v>
+        <v>1294.554061701547</v>
       </c>
       <c r="AH8" t="n">
-        <v>73.66806453668318</v>
+        <v>51.30996895185547</v>
       </c>
       <c r="AI8" t="n">
-        <v>1840.545316574151</v>
+        <v>449.4888875636889</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>185.5554191210729</v>
+        <v>202.1121473758996</v>
       </c>
       <c r="B9" t="n">
-        <v>185.5554191210729</v>
+        <v>202.1121473758996</v>
       </c>
       <c r="C9" t="n">
-        <v>1275.606156965978</v>
+        <v>1262.07177480623</v>
       </c>
       <c r="D9" t="n">
-        <v>1275.606156965978</v>
+        <v>1262.07177480623</v>
       </c>
       <c r="E9" t="n">
-        <v>576.0463286808317</v>
+        <v>584.0629160509252</v>
       </c>
       <c r="F9" t="n">
-        <v>19.88465817276008</v>
+        <v>21.17761541816066</v>
       </c>
       <c r="G9" t="n">
-        <v>767.1802005822883</v>
+        <v>774.4892312680349</v>
       </c>
       <c r="H9" t="n">
-        <v>123.5437818123728</v>
+        <v>130.8751698958872</v>
       </c>
       <c r="I9" t="n">
-        <v>98.87170438258863</v>
+        <v>104.8019470676707</v>
       </c>
       <c r="J9" t="n">
-        <v>1352.209295480804</v>
+        <v>1373.220205556436</v>
       </c>
       <c r="K9" t="n">
-        <v>19.88465817276008</v>
+        <v>21.17761541816066</v>
       </c>
       <c r="L9" t="n">
-        <v>234.2648680171493</v>
+        <v>313.8969809078134</v>
       </c>
       <c r="M9" t="n">
-        <v>234.2648680171493</v>
+        <v>313.8969809078134</v>
       </c>
       <c r="N9" t="n">
-        <v>432.2376500860514</v>
+        <v>426.9196485638247</v>
       </c>
       <c r="O9" t="n">
-        <v>7560.663170983844</v>
+        <v>7585.336865843601</v>
       </c>
       <c r="P9" t="n">
-        <v>3820.105082677969</v>
+        <v>3735.473886374507</v>
       </c>
       <c r="Q9" t="n">
-        <v>5894.687341924623</v>
+        <v>5981.32672477368</v>
       </c>
       <c r="R9" t="n">
-        <v>432.2376500860514</v>
+        <v>426.9196485638247</v>
       </c>
       <c r="S9" t="n">
-        <v>1520.923985081481</v>
+        <v>1509.553152129456</v>
       </c>
       <c r="T9" t="n">
-        <v>4058.151068905062</v>
+        <v>3927.628909856935</v>
       </c>
       <c r="U9" t="n">
-        <v>4058.151068905062</v>
+        <v>3927.628909856935</v>
       </c>
       <c r="V9" t="n">
-        <v>128.9575958459696</v>
+        <v>121.0411784754974</v>
       </c>
       <c r="W9" t="n">
-        <v>2230.555401492211</v>
+        <v>2229.259044355103</v>
       </c>
       <c r="X9" t="n">
-        <v>6320.454939934393</v>
+        <v>6312.810671141506</v>
       </c>
       <c r="Y9" t="n">
-        <v>1286.655355411625</v>
+        <v>1282.384750126198</v>
       </c>
       <c r="Z9" t="n">
-        <v>11273.72346557388</v>
+        <v>11294.1004870479</v>
       </c>
       <c r="AA9" t="n">
-        <v>128.9575958459696</v>
+        <v>121.0411784754974</v>
       </c>
       <c r="AB9" t="n">
-        <v>39.90771796310355</v>
+        <v>40.02108020051764</v>
       </c>
       <c r="AC9" t="n">
-        <v>29.03406758114002</v>
+        <v>73.66830679404757</v>
       </c>
       <c r="AD9" t="n">
-        <v>1152.244591027511</v>
+        <v>514.3476722511195</v>
       </c>
       <c r="AE9" t="n">
-        <v>415.7390898282642</v>
+        <v>349.1385677854169</v>
       </c>
       <c r="AF9" t="n">
-        <v>171.9635417075267</v>
+        <v>125.8221899932934</v>
       </c>
       <c r="AG9" t="n">
-        <v>3264.038876588302</v>
+        <v>2650.867384851722</v>
       </c>
       <c r="AH9" t="n">
-        <v>29.03406758114002</v>
+        <v>73.66830679404757</v>
       </c>
       <c r="AI9" t="n">
-        <v>1447.694696328028</v>
+        <v>1840.544093256938</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>143.1922588786279</v>
+        <v>185.556139956546</v>
       </c>
       <c r="B10" t="n">
-        <v>143.1922588786279</v>
+        <v>185.556139956546</v>
       </c>
       <c r="C10" t="n">
-        <v>1524.339798564029</v>
+        <v>1275.605484316031</v>
       </c>
       <c r="D10" t="n">
-        <v>1524.339798564029</v>
+        <v>1275.605484316031</v>
       </c>
       <c r="E10" t="n">
-        <v>533.2875374061814</v>
+        <v>576.046004271916</v>
       </c>
       <c r="F10" t="n">
-        <v>14.69684751397082</v>
+        <v>19.88459989610547</v>
       </c>
       <c r="G10" t="n">
-        <v>752.4400101061701</v>
+        <v>767.1802269885575</v>
       </c>
       <c r="H10" t="n">
-        <v>112.2801241330649</v>
+        <v>123.5437658155831</v>
       </c>
       <c r="I10" t="n">
-        <v>73.22922015497113</v>
+        <v>98.87153945300042</v>
       </c>
       <c r="J10" t="n">
-        <v>1266.309417246134</v>
+        <v>1352.208790484951</v>
       </c>
       <c r="K10" t="n">
-        <v>14.69684751397082</v>
+        <v>19.88459989610547</v>
       </c>
       <c r="L10" t="n">
-        <v>214.1099978638294</v>
+        <v>234.2645376674142</v>
       </c>
       <c r="M10" t="n">
-        <v>214.1099978638294</v>
+        <v>234.2645376674142</v>
       </c>
       <c r="N10" t="n">
-        <v>427.0909167527179</v>
+        <v>432.2375454580936</v>
       </c>
       <c r="O10" t="n">
-        <v>7580.01596445456</v>
+        <v>7560.658756815201</v>
       </c>
       <c r="P10" t="n">
-        <v>3742.247327041241</v>
+        <v>3820.104030131233</v>
       </c>
       <c r="Q10" t="n">
-        <v>5971.633980104002</v>
+        <v>5894.6834672862</v>
       </c>
       <c r="R10" t="n">
-        <v>427.0909167527179</v>
+        <v>432.2375454580936</v>
       </c>
       <c r="S10" t="n">
-        <v>1510.36561380073</v>
+        <v>1520.923666833937</v>
       </c>
       <c r="T10" t="n">
-        <v>3946.749495926838</v>
+        <v>4058.148271777071</v>
       </c>
       <c r="U10" t="n">
-        <v>3946.749495926838</v>
+        <v>4058.148271777071</v>
       </c>
       <c r="V10" t="n">
-        <v>122.8515370177838</v>
+        <v>128.9576021211367</v>
       </c>
       <c r="W10" t="n">
-        <v>2229.129552835502</v>
+        <v>2230.554692504256</v>
       </c>
       <c r="X10" t="n">
-        <v>6313.036523259825</v>
+        <v>6320.453052486528</v>
       </c>
       <c r="Y10" t="n">
-        <v>1282.240434642802</v>
+        <v>1286.655078332672</v>
       </c>
       <c r="Z10" t="n">
-        <v>11292.0689399906</v>
+        <v>11273.71789205176</v>
       </c>
       <c r="AA10" t="n">
-        <v>122.8515370177838</v>
+        <v>128.9576021211367</v>
       </c>
       <c r="AB10" t="n">
-        <v>40.02741415871469</v>
+        <v>39.90769473733735</v>
       </c>
       <c r="AC10" t="n">
-        <v>51.30921599705829</v>
+        <v>29.03409806121005</v>
       </c>
       <c r="AD10" t="n">
-        <v>795.7942602259891</v>
+        <v>1152.244664750697</v>
       </c>
       <c r="AE10" t="n">
-        <v>327.4795629594394</v>
+        <v>415.7396829122604</v>
       </c>
       <c r="AF10" t="n">
-        <v>201.5314747101229</v>
+        <v>171.9638045791498</v>
       </c>
       <c r="AG10" t="n">
-        <v>1294.560006148174</v>
+        <v>3264.039280839256</v>
       </c>
       <c r="AH10" t="n">
-        <v>51.30921599705829</v>
+        <v>29.03409806121005</v>
       </c>
       <c r="AI10" t="n">
-        <v>449.4945897479283</v>
+        <v>1447.694616741728</v>
       </c>
     </row>
   </sheetData>
